--- a/ADCVD_OBJECTS_DATES_VALIDATION/input_data/datapool/validate_admin_review_dates.xlsx
+++ b/ADCVD_OBJECTS_DATES_VALIDATION/input_data/datapool/validate_admin_review_dates.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81A11D8-15D3-40A4-913E-2A9796C0AED0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5912A5-932E-4FC0-80AB-B19CCA68EFBD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="890" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="890" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expedited_Review" sheetId="11" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="23" r:id="rId2"/>
     <sheet name="expdted" sheetId="12" state="hidden" r:id="rId3"/>
     <sheet name="petition" sheetId="4" r:id="rId4"/>
-    <sheet name="petion" sheetId="8" state="hidden" r:id="rId5"/>
-    <sheet name="investigation" sheetId="5" state="hidden" r:id="rId6"/>
-    <sheet name="inv" sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="petion" sheetId="8" r:id="rId5"/>
+    <sheet name="investigation" sheetId="5" r:id="rId6"/>
+    <sheet name="inv" sheetId="6" r:id="rId7"/>
     <sheet name="admin review" sheetId="1" state="hidden" r:id="rId8"/>
     <sheet name="adm" sheetId="3" state="hidden" r:id="rId9"/>
     <sheet name="anti-circumvention" sheetId="2" r:id="rId10"/>
@@ -46,6 +46,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -4679,8 +4680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56AE6AE-21BD-4128-9A0D-2FE68BF90395}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4710,13 +4711,13 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4724,13 +4725,13 @@
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>166</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4738,13 +4739,13 @@
         <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -4834,8 +4835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8FAF9DE-7D81-4F5E-AEF1-CE1C8C6B6395}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4865,13 +4866,13 @@
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4879,13 +4880,13 @@
         <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4893,69 +4894,69 @@
         <v>76</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>173</v>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>175</v>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4963,27 +4964,27 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4991,27 +4992,27 @@
         <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5019,54 +5020,54 @@
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>169</v>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>174</v>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5075,13 +5076,13 @@
         <v>52</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5089,41 +5090,41 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>171</v>
+      <c r="B19" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>171</v>
+      <c r="B20" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5131,41 +5132,41 @@
         <v>80</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>172</v>
+      <c r="B22" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>170</v>
+      <c r="B23" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -5178,7 +5179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7DD527-315C-4A7D-BF25-8DF5A7AD154B}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:D22"/>
     </sheetView>
   </sheetViews>
